--- a/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.77462862724406</v>
+        <v>0.7379807741686587</v>
       </c>
       <c r="C11" t="n">
-        <v>2.425475659719333</v>
+        <v>2.318078033613898</v>
       </c>
       <c r="D11" t="n">
-        <v>4.182850600717301</v>
+        <v>3.887296797116761</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7379807741686587</v>
+        <v>0.7697264512023867</v>
       </c>
       <c r="C11" t="n">
-        <v>2.318078033613898</v>
+        <v>2.425353813752091</v>
       </c>
       <c r="D11" t="n">
-        <v>3.887296797116761</v>
+        <v>4.206101663534961</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.339468385242547</v>
+        <v>0.05339468385242547</v>
       </c>
       <c r="C2" t="n">
-        <v>16.47891172654763</v>
+        <v>0.1647891172654763</v>
       </c>
       <c r="D2" t="n">
-        <v>20.87968590772997</v>
+        <v>0.2087968590772997</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.12429686514582</v>
+        <v>0.1012429686514582</v>
       </c>
       <c r="C3" t="n">
-        <v>32.90994760454517</v>
+        <v>0.3290994760454516</v>
       </c>
       <c r="D3" t="n">
-        <v>45.24367152246989</v>
+        <v>0.4524367152246989</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.022042821457067</v>
+        <v>0.08022042821457066</v>
       </c>
       <c r="C4" t="n">
-        <v>24.96875745003411</v>
+        <v>0.2496875745003411</v>
       </c>
       <c r="D4" t="n">
-        <v>31.81843474895681</v>
+        <v>0.3181843474895681</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.361176664776838</v>
+        <v>0.05361176664776839</v>
       </c>
       <c r="C5" t="n">
-        <v>16.54984878937852</v>
+        <v>0.1654984878937852</v>
       </c>
       <c r="D5" t="n">
-        <v>20.91041918755184</v>
+        <v>0.2091041918755184</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.258341558341861</v>
+        <v>0.05258341558341861</v>
       </c>
       <c r="C6" t="n">
-        <v>16.33914518005226</v>
+        <v>0.1633914518005226</v>
       </c>
       <c r="D6" t="n">
-        <v>20.69965549563649</v>
+        <v>0.2069965549563649</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.848290329885645</v>
+        <v>0.06848290329885645</v>
       </c>
       <c r="C7" t="n">
-        <v>22.18686312607217</v>
+        <v>0.2218686312607217</v>
       </c>
       <c r="D7" t="n">
-        <v>31.66450168659096</v>
+        <v>0.3166450168659096</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.29630012062884</v>
+        <v>0.1029630012062884</v>
       </c>
       <c r="C8" t="n">
-        <v>33.53647414829523</v>
+        <v>0.3353647414829523</v>
       </c>
       <c r="D8" t="n">
-        <v>45.79041614800877</v>
+        <v>0.4579041614800877</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.58584965315213</v>
+        <v>0.1058584965315213</v>
       </c>
       <c r="C9" t="n">
-        <v>34.73163642607442</v>
+        <v>0.3473163642607442</v>
       </c>
       <c r="D9" t="n">
-        <v>46.18391657974433</v>
+        <v>0.4618391657974433</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.21631018854088</v>
+        <v>0.2121631018854088</v>
       </c>
       <c r="C10" t="n">
-        <v>92.80007369996612</v>
+        <v>0.9280007369996612</v>
       </c>
       <c r="D10" t="n">
-        <v>93.1862646049685</v>
+        <v>0.9318626460496851</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7697264512023867</v>
+        <v>0.007577484075379852</v>
       </c>
       <c r="C11" t="n">
-        <v>2.425353813752091</v>
+        <v>0.02377196500680476</v>
       </c>
       <c r="D11" t="n">
-        <v>4.206101663534961</v>
+        <v>0.0392176704579803</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01298828659773245</v>
+        <v>0.0001298828659773245</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04435478545287196</v>
+        <v>0.0004435478545287196</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06486688458910585</v>
+        <v>0.0006486688458910585</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.192224089832478</v>
+        <v>0.01192224089832478</v>
       </c>
       <c r="C13" t="n">
-        <v>3.98578503567309</v>
+        <v>0.0398578503567309</v>
       </c>
       <c r="D13" t="n">
-        <v>6.22728508271179</v>
+        <v>0.06227285082711791</v>
       </c>
     </row>
   </sheetData>
